--- a/rider/weekly/2017_20.xlsx
+++ b/rider/weekly/2017_20.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>262</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>226.52</c:v>
+                  <c:v>226.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>214.76</c:v>
+                  <c:v>219.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.9</c:v>
+                  <c:v>214.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236.64</c:v>
+                  <c:v>234.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238.28</c:v>
+                  <c:v>238.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.07</c:v>
+                  <c:v>112.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.54000000000001</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D2">
-        <v>226.52</v>
+        <v>226.96</v>
       </c>
       <c r="E2">
         <v>119.98</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D3">
-        <v>214.76</v>
+        <v>219.66</v>
       </c>
       <c r="E3">
         <v>120.14</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D4">
-        <v>224.9</v>
+        <v>214.69</v>
       </c>
       <c r="E4">
         <v>120.3</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D5">
-        <v>236.64</v>
+        <v>234.89</v>
       </c>
       <c r="E5">
         <v>120.47</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D6">
-        <v>238.28</v>
+        <v>238.97</v>
       </c>
       <c r="E6">
         <v>120.63</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>112.07</v>
+        <v>112.87</v>
       </c>
       <c r="E7">
         <v>120.79</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>90.54000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="E8">
         <v>120.95</v>
